--- a/Pruebas del Sistema.xlsx
+++ b/Pruebas del Sistema.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gerardo Villalobos\Desktop\Aseguramiento de Software\Proyecto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\2019-1-qa-grupo3-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C414DAE-FC01-4AB4-98FA-367EEA444844}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8205"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="164">
   <si>
     <t>Pruebas del sistema</t>
   </si>
@@ -373,12 +372,156 @@
   </si>
   <si>
     <t>Nos agregan con éxito</t>
+  </si>
+  <si>
+    <t>Editar perfil</t>
+  </si>
+  <si>
+    <t>Valores completos y válidos</t>
+  </si>
+  <si>
+    <t>Rellenar correctamente los datos y dat click al botón de guardar</t>
+  </si>
+  <si>
+    <t>Estar logeado en la aplicación</t>
+  </si>
+  <si>
+    <t>Guardar cambios</t>
+  </si>
+  <si>
+    <t>Cambios guardados</t>
+  </si>
+  <si>
+    <t>Valores incompletos</t>
+  </si>
+  <si>
+    <t>Dejas vacio un espacio de los datos</t>
+  </si>
+  <si>
+    <t>Mostrar mensaje de error</t>
+  </si>
+  <si>
+    <t>Usuario ya registrado</t>
+  </si>
+  <si>
+    <t>coloca el nombre de un usuario existente</t>
+  </si>
+  <si>
+    <t>Mensaje de información incompleta</t>
+  </si>
+  <si>
+    <t>No muestra mensaje, pero no actualiza</t>
+  </si>
+  <si>
+    <t>Login con FB</t>
+  </si>
+  <si>
+    <t>cuenta vinculada</t>
+  </si>
+  <si>
+    <t>ingresar con una cuenta vinculada a un usuario</t>
+  </si>
+  <si>
+    <t>tener una cuenta vinculada a un usuario</t>
+  </si>
+  <si>
+    <t>Ingresar</t>
+  </si>
+  <si>
+    <t>Ingreso al sistema</t>
+  </si>
+  <si>
+    <t>cuenta  no vinculada</t>
+  </si>
+  <si>
+    <t>ingresar con una cuenta no vinculada a un usuario</t>
+  </si>
+  <si>
+    <t>no poseer una cuenta vinculada</t>
+  </si>
+  <si>
+    <t>NO ingresar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ingresa pero no carga datos </t>
+  </si>
+  <si>
+    <t>error</t>
+  </si>
+  <si>
+    <t>busqueda de post</t>
+  </si>
+  <si>
+    <t>palabra presente en algún post</t>
+  </si>
+  <si>
+    <t>post en el sistema</t>
+  </si>
+  <si>
+    <t>contar con post en el sistema</t>
+  </si>
+  <si>
+    <t>encontrar post</t>
+  </si>
+  <si>
+    <t>se muestra iun post que concuerda</t>
+  </si>
+  <si>
+    <t>palabta no presente en ningun post</t>
+  </si>
+  <si>
+    <t>no encontrar post</t>
+  </si>
+  <si>
+    <t>no se muestran post</t>
+  </si>
+  <si>
+    <t>sin palabra</t>
+  </si>
+  <si>
+    <t>mostrar todos</t>
+  </si>
+  <si>
+    <t>se muestran todos</t>
+  </si>
+  <si>
+    <t>buscar amigos</t>
+  </si>
+  <si>
+    <t>ingresar letras que contenga un nombre de usuario</t>
+  </si>
+  <si>
+    <t>letras presentes en nombre de usuario no amigo</t>
+  </si>
+  <si>
+    <t>estar logeado</t>
+  </si>
+  <si>
+    <t>mostrar usuarios con nombre similar</t>
+  </si>
+  <si>
+    <t>se reduce la lista a similares</t>
+  </si>
+  <si>
+    <t>ingresar letras que no contenga un nombre de usuario</t>
+  </si>
+  <si>
+    <t>letras no presentes en nombre de usuario no amigo</t>
+  </si>
+  <si>
+    <t>no mostrar usuarios</t>
+  </si>
+  <si>
+    <t>lista vacía</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -388,7 +531,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -407,8 +550,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -416,14 +565,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -703,20 +868,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:H71"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:H85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="A77" sqref="A77"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="B87" sqref="B87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="28" customWidth="1"/>
     <col min="3" max="3" width="64.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="55.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.140625" customWidth="1"/>
-    <col min="6" max="6" width="30.7109375" customWidth="1"/>
+    <col min="4" max="4" width="62.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="46.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1789,7 +1954,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>82</v>
       </c>
@@ -1803,7 +1968,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>82</v>
       </c>
@@ -1817,7 +1982,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>82</v>
       </c>
@@ -1831,7 +1996,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>82</v>
       </c>
@@ -1845,7 +2010,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>94</v>
       </c>
@@ -1859,7 +2024,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>95</v>
       </c>
@@ -1871,6 +2036,222 @@
       </c>
       <c r="G71" t="s">
         <v>107</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B73" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="H73" s="3"/>
+    </row>
+    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B74" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="H74" s="3"/>
+    </row>
+    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B75" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H75" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B77" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="H77" s="3"/>
+    </row>
+    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B78" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="H78" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B80" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="H80" s="3"/>
+    </row>
+    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B81" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="H81" s="3"/>
+    </row>
+    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B82" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="H82" s="3"/>
+    </row>
+    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B84" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="H84" s="3"/>
+    </row>
+    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B85" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="H85" s="3" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
